--- a/artfynd/A 54822-2022.xlsx
+++ b/artfynd/A 54822-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,6 +808,134 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112111626</v>
+      </c>
+      <c r="B3" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Andersloken, Mpd</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>555846.0651465225</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6952042.273423757</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Ånge</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Borgsjö</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 54822-2022.xlsx
+++ b/artfynd/A 54822-2022.xlsx
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>555846.0651465225</v>
+        <v>555846</v>
       </c>
       <c r="R3" t="n">
-        <v>6952042.273423757</v>
+        <v>6952042</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -899,19 +899,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">

--- a/artfynd/A 54822-2022.xlsx
+++ b/artfynd/A 54822-2022.xlsx
@@ -813,7 +813,7 @@
         <v>112111626</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
